--- a/Lab12/Q1 Results.xlsx
+++ b/Lab12/Q1 Results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 2\Sem 4\Data Structures and Algorithms\Labs\CMP305_Repo\Lab12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11073314-C195-488E-A34A-367B447DD03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D50A8-2851-4BAD-B6F0-25B2607A99C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD65B9C1-1FC4-41BB-8C78-52AE36E4F46B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FD65B9C1-1FC4-41BB-8C78-52AE36E4F46B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0 Sorted" sheetId="1" r:id="rId1"/>
+    <sheet name="0.5 Sorted" sheetId="2" r:id="rId2"/>
+    <sheet name="1 Sorted" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t xml:space="preserve">N	 </t>
   </si>
@@ -140,6 +142,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance of BST and AVL Trees (0% sorted)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,7 +212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'0 Sorted'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -201,9 +233,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>'0 Sorted'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -312,7 +443,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'0 Sorted'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,9 +464,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>'0 Sorted'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -444,7 +674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'0 Sorted'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,9 +695,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>'0 Sorted'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -576,7 +905,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'0 Sorted'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -597,9 +926,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:f>'0 Sorted'!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -708,7 +1136,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'0 Sorted'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,9 +1157,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$31</c:f>
+              <c:f>'0 Sorted'!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -840,7 +1367,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'0 Sorted'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -861,9 +1388,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$31</c:f>
+              <c:f>'0 Sorted'!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -978,6 +1604,249 @@
         <c:smooth val="0"/>
         <c:axId val="550190352"/>
         <c:axId val="550194512"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>N</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'0 Sorted'!$B$2:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1300</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1400</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1800</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2300</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2400</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2700</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2900</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'0 Sorted'!$B$2:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1300</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1400</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1800</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2300</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2400</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2700</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2900</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8B8A-4FB1-8C2F-931C4C6A8581}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="550190352"/>
@@ -986,6 +1855,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1168,7 +2038,3413 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BST vs AVL (50% Sorted)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	bstMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	bstAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5 Sorted'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bstMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5 Sorted'!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DB0E-4827-AE3B-BE52111DA69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="643170296"/>
+        <c:axId val="643170936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643170296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643170936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643170936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643170296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BST vs AVL 100% Sorted</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	avlMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	bstMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>	bstAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Sorted'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bstMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Sorted'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Sorted'!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7A51-494A-AE3E-621BAF7FEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="665943032"/>
+        <c:axId val="665950072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="665943032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665950072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665950072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665943032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1724,20 +6000,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1745,6 +7053,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1087A363-8952-49C5-AC28-985ABD42CDDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2372FE0-7CBE-4951-8B99-56E11D0628C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136AEBD5-ABF0-4E56-9231-6A16867DB5AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,8 +7454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD368C70-5DA3-43F2-82AE-DF46D764E44F}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,4 +8177,1462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1FD72-3A3C-4ED1-832A-F5B83FA7E22A}">
+  <dimension ref="B1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC7189B-AE2F-477A-B056-2E88E733B996}">
+  <dimension ref="B1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1">
+        <v>92</v>
+      </c>
+      <c r="H17" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1">
+        <v>111</v>
+      </c>
+      <c r="H20" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1">
+        <v>116</v>
+      </c>
+      <c r="H21" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1">
+        <v>120</v>
+      </c>
+      <c r="H22" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1">
+        <v>111</v>
+      </c>
+      <c r="G23" s="1">
+        <v>128</v>
+      </c>
+      <c r="H23" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1">
+        <v>134</v>
+      </c>
+      <c r="H24" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1">
+        <v>138</v>
+      </c>
+      <c r="H25" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <v>118</v>
+      </c>
+      <c r="G26" s="1">
+        <v>144</v>
+      </c>
+      <c r="H26" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>127</v>
+      </c>
+      <c r="G27" s="1">
+        <v>149</v>
+      </c>
+      <c r="H27" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
+        <v>134</v>
+      </c>
+      <c r="G28" s="1">
+        <v>154</v>
+      </c>
+      <c r="H28" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1">
+        <v>157</v>
+      </c>
+      <c r="H29" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
+        <v>143</v>
+      </c>
+      <c r="G30" s="1">
+        <v>168</v>
+      </c>
+      <c r="H30" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
+        <v>146</v>
+      </c>
+      <c r="G31" s="1">
+        <v>170</v>
+      </c>
+      <c r="H31" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>